--- a/11_20/13.이메일을_수집하여_엑셀에_기록하기/email.xlsx
+++ b/11_20/13.이메일을_수집하여_엑셀에_기록하기/email.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,6 +435,13 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>wine_sky@news1.kr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
